--- a/DataConfig/Datas/global_config.xlsx
+++ b/DataConfig/Datas/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>一天点单上限</t>
+  </si>
+  <si>
+    <t>attenuate_patient</t>
+  </si>
+  <si>
+    <t>客人每分钟耐心值衰减</t>
+  </si>
+  <si>
+    <t>patient_max_value</t>
+  </si>
+  <si>
+    <t>耐心值</t>
   </si>
 </sst>
 </file>
@@ -749,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,6 +773,9 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1073,10 +1088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1204,6 +1219,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" ht="27" spans="2:4">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataConfig/Datas/global_config.xlsx
+++ b/DataConfig/Datas/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -111,6 +111,38 @@
   </si>
   <si>
     <t>耐心值</t>
+  </si>
+  <si>
+    <t>day_summary_header</t>
+  </si>
+  <si>
+    <t>每日结算界面头部信息
+X年X月X日     晴朗
+---------------------------------------
+今天接待了10个客人,总共收入1000元.
+收入最高的菜品是&lt;红烧章鱼头&gt;
+---------------------------------------
+顾客基头四点评道:
+"咦,这味道,强而有力,强而有力啊!"
+顾客杀人兔点评道:
+"太好吃了,我爱吃人"</t>
+  </si>
+  <si>
+    <t>{0}年{1}{2}日     {3}
+---------------------------------------
+今天接待了{4}个客人,总共收入{5}元.
+{6}
+---------------------------------------</t>
+  </si>
+  <si>
+    <t>customer_comment</t>
+  </si>
+  <si>
+    <t>顾客点评</t>
+  </si>
+  <si>
+    <t>顾客{0}点评道:
+"{1}"</t>
   </si>
 </sst>
 </file>
@@ -761,7 +793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,6 +805,9 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1088,19 +1123,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="24.05" customWidth="1"/>
-    <col min="3" max="3" width="13.7833333333333" customWidth="1"/>
+    <col min="3" max="3" width="39.65" customWidth="1"/>
     <col min="4" max="4" width="12.15" customWidth="1"/>
     <col min="5" max="5" width="12.4083333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.15" customWidth="1"/>
+    <col min="6" max="6" width="38.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1241,6 +1276,28 @@
         <v>150</v>
       </c>
     </row>
+    <row r="12" ht="78" customHeight="1" spans="2:6">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="2:6">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataConfig/Datas/global_config.xlsx
+++ b/DataConfig/Datas/global_config.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="18345" windowHeight="17655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="全局配置" sheetId="1" r:id="rId1"/>
+    <sheet name="口味对应文字" sheetId="2" r:id="rId2"/>
+    <sheet name="厨具名字" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -144,6 +146,126 @@
     <t>顾客{0}点评道:
 "{1}"</t>
   </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>水产</t>
+  </si>
+  <si>
+    <t>素</t>
+  </si>
+  <si>
+    <t>实惠</t>
+  </si>
+  <si>
+    <t>昂贵</t>
+  </si>
+  <si>
+    <t>家常</t>
+  </si>
+  <si>
+    <t>凉菜</t>
+  </si>
+  <si>
+    <t>卤制品</t>
+  </si>
+  <si>
+    <t>荤素搭配</t>
+  </si>
+  <si>
+    <t>野味</t>
+  </si>
+  <si>
+    <t>小炒</t>
+  </si>
+  <si>
+    <t>烧烤</t>
+  </si>
+  <si>
+    <t>重油</t>
+  </si>
+  <si>
+    <t>汤羹</t>
+  </si>
+  <si>
+    <t>热气</t>
+  </si>
+  <si>
+    <t>清淡</t>
+  </si>
+  <si>
+    <t>酸</t>
+  </si>
+  <si>
+    <t>甜</t>
+  </si>
+  <si>
+    <t>苦</t>
+  </si>
+  <si>
+    <t>辣</t>
+  </si>
+  <si>
+    <t>咸</t>
+  </si>
+  <si>
+    <t>鲜</t>
+  </si>
+  <si>
+    <t>臭</t>
+  </si>
+  <si>
+    <t>饱腹</t>
+  </si>
+  <si>
+    <t>小巧</t>
+  </si>
+  <si>
+    <t>清凉</t>
+  </si>
+  <si>
+    <t>暖胃</t>
+  </si>
+  <si>
+    <t>烫嘴</t>
+  </si>
+  <si>
+    <t>冰爽</t>
+  </si>
+  <si>
+    <t>香酥</t>
+  </si>
+  <si>
+    <t>减肥</t>
+  </si>
+  <si>
+    <t>嫩</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>软烂</t>
+  </si>
+  <si>
+    <t>开胃</t>
+  </si>
+  <si>
+    <t>炒锅</t>
+  </si>
+  <si>
+    <t>煮锅</t>
+  </si>
+  <si>
+    <t>炸锅</t>
+  </si>
+  <si>
+    <t>蒸笼</t>
+  </si>
+  <si>
+    <t>烤架</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +277,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +298,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -663,151 +791,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1125,8 +1256,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1195,7 +1326,7 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>52963</v>
       </c>
     </row>
@@ -1206,7 +1337,7 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -1254,11 +1385,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="2:4">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D10">
@@ -1280,10 +1411,10 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1294,7 +1425,7 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1303,4 +1434,416 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" ht="16.5" spans="2:3">
+      <c r="B4" s="5">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="2:3">
+      <c r="B5" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="2:3">
+      <c r="B6" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:3">
+      <c r="B7" s="5">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="2:3">
+      <c r="B8" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="2:3">
+      <c r="B9" s="5">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="2:3">
+      <c r="B10" s="5">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="2:3">
+      <c r="B11" s="5">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="2:3">
+      <c r="B12" s="5">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="2:3">
+      <c r="B13" s="5">
+        <v>1010</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:3">
+      <c r="B14" s="5">
+        <v>1011</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:3">
+      <c r="B15" s="5">
+        <v>1012</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="2:3">
+      <c r="B16" s="5">
+        <v>1013</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="2:3">
+      <c r="B17" s="5">
+        <v>1014</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:3">
+      <c r="B18" s="5">
+        <v>1015</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:3">
+      <c r="B19" s="5">
+        <v>1016</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:3">
+      <c r="B20" s="5">
+        <v>1017</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:3">
+      <c r="B21" s="5">
+        <v>1018</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:3">
+      <c r="B22" s="5">
+        <v>1019</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:3">
+      <c r="B23" s="5">
+        <v>1020</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:3">
+      <c r="B24" s="5">
+        <v>1021</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:3">
+      <c r="B25" s="5">
+        <v>1022</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:3">
+      <c r="B26" s="5">
+        <v>1023</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="2:3">
+      <c r="B27" s="5">
+        <v>1024</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="2:3">
+      <c r="B28" s="5">
+        <v>1025</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="2:3">
+      <c r="B29" s="5">
+        <v>1026</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="2:3">
+      <c r="B30" s="5">
+        <v>1027</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="2:3">
+      <c r="B31" s="5">
+        <v>1028</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="2:3">
+      <c r="B32" s="5">
+        <v>1029</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="2:3">
+      <c r="B33" s="5">
+        <v>1030</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="2:3">
+      <c r="B34" s="5">
+        <v>1031</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="2:3">
+      <c r="B35" s="5">
+        <v>1032</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="2:3">
+      <c r="B36" s="5">
+        <v>1033</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="2:3">
+      <c r="B37" s="5">
+        <v>1034</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="2:3">
+      <c r="B38" s="5">
+        <v>1035</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" ht="16.5" spans="2:3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="2:3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="2:3">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:3">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="2:3">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>